--- a/Page/file/mobile_number.xlsx
+++ b/Page/file/mobile_number.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>戴亡</t>
+    <t>薛使</t>
   </si>
 </sst>
 </file>

--- a/Page/file/mobile_number.xlsx
+++ b/Page/file/mobile_number.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>薛使</t>
+    <t>臧很</t>
   </si>
 </sst>
 </file>

--- a/Page/file/mobile_number.xlsx
+++ b/Page/file/mobile_number.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>臧很</t>
+    <t>冯突</t>
   </si>
 </sst>
 </file>

--- a/Page/file/mobile_number.xlsx
+++ b/Page/file/mobile_number.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>冯突</t>
+    <t>滕脚</t>
   </si>
 </sst>
 </file>

--- a/Page/file/mobile_number.xlsx
+++ b/Page/file/mobile_number.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>滕脚</t>
+    <t>许赛</t>
   </si>
 </sst>
 </file>
